--- a/public/uploads/imports/Subjects-208-2020.xlsx
+++ b/public/uploads/imports/Subjects-208-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Server\OpenServer-5-4-3\OSPanel\domains\agromaster-info\public\uploads\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E844669-D6FD-4C7E-AE81-9201A1CDB1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1CAF2E-1F25-40D9-8450-7595BDCA02C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{72630840-68D4-48F9-A7F8-690D3E52DB2D}"/>
   </bookViews>
@@ -378,42 +378,6 @@
     <t>Інженерія первинної обробки та переробки продукції тваринництва</t>
   </si>
   <si>
-    <t>ВС ППП 9(1) (АІ)</t>
-  </si>
-  <si>
-    <t>ВС ППП 9(2) (АІ)</t>
-  </si>
-  <si>
-    <t>ВС ППП 9(1) (МАПВ)</t>
-  </si>
-  <si>
-    <t>ВС ППП 9(2) (МАПВ)</t>
-  </si>
-  <si>
-    <t>ВС ППП 9(1) (ЯСС)</t>
-  </si>
-  <si>
-    <t>ВС ППП 9(2) (ЯСС)</t>
-  </si>
-  <si>
-    <t>ВС ППП 9(1) (АТ)</t>
-  </si>
-  <si>
-    <t>ВС ППП 9(2) (АТ)</t>
-  </si>
-  <si>
-    <t>ВС ППП 9(1) (ІТСР)</t>
-  </si>
-  <si>
-    <t>ВС ППП 9(2) (ІТСР)</t>
-  </si>
-  <si>
-    <t>ВС ППП 9(1) (ІВППТ)</t>
-  </si>
-  <si>
-    <t>ВС ППП 9(2) (ІВППТ)</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -709,6 +673,42 @@
   </si>
   <si>
     <t>Н ППП 21</t>
+  </si>
+  <si>
+    <t>ВС ППП 10(1) (АІ)</t>
+  </si>
+  <si>
+    <t>ВС ППП 10(2) (АІ)</t>
+  </si>
+  <si>
+    <t>ВС ППП 10(1) (МАПВ)</t>
+  </si>
+  <si>
+    <t>ВС ППП 10(1) (ЯСС)</t>
+  </si>
+  <si>
+    <t>ВС ППП 10(2) (МАПВ)</t>
+  </si>
+  <si>
+    <t>ВС ППП 10(2) (ЯСС)</t>
+  </si>
+  <si>
+    <t>ВС ППП 10(1) (АТ)</t>
+  </si>
+  <si>
+    <t>ВС ППП 10(1) (ІТСР)</t>
+  </si>
+  <si>
+    <t>ВС ППП 10(2) (АТ)</t>
+  </si>
+  <si>
+    <t>ВС ППП 10(2) (ІТСР)</t>
+  </si>
+  <si>
+    <t>ВС ППП 10(1) (ІВППТ)</t>
+  </si>
+  <si>
+    <t>ВС ППП 10(2) (ІВППТ)</t>
   </si>
 </sst>
 </file>
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118D72F5-BA1C-4944-81C9-AA6F79FA1E32}">
   <dimension ref="A1:Q130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1206,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2012,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="7" customFormat="1">
@@ -2047,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2083,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7"/>
     </row>
@@ -2101,7 +2101,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="6">
@@ -2120,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M26" s="7"/>
     </row>
@@ -2138,7 +2138,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="6">
@@ -2157,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M27" s="7"/>
     </row>
@@ -2175,7 +2175,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="6">
@@ -2212,7 +2212,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="6">
@@ -2249,7 +2249,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="6">
@@ -2286,7 +2286,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="6">
@@ -2323,7 +2323,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="6">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -2691,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -2769,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -2847,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -2906,7 +2906,7 @@
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="6">
@@ -2925,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M47" s="7"/>
     </row>
@@ -2943,7 +2943,7 @@
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="6">
@@ -2962,7 +2962,7 @@
         <v>2</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M48" s="7"/>
     </row>
@@ -2980,7 +2980,7 @@
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="6">
@@ -2999,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M49" s="7"/>
     </row>
@@ -3017,7 +3017,7 @@
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="6">
@@ -3036,7 +3036,7 @@
         <v>2</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M50" s="7"/>
     </row>
@@ -3054,7 +3054,7 @@
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="6">
@@ -3073,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M51" s="7"/>
     </row>
@@ -3110,7 +3110,7 @@
         <v>2</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M52" s="7"/>
     </row>
@@ -3147,7 +3147,7 @@
         <v>2</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M53" s="7"/>
     </row>
@@ -3165,7 +3165,7 @@
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="6">
@@ -3184,7 +3184,7 @@
         <v>2</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M54" s="7"/>
     </row>
@@ -3202,7 +3202,7 @@
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="6">
@@ -3221,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="M55" s="7"/>
     </row>
@@ -3239,7 +3239,7 @@
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="6">
@@ -3258,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="M56" s="7"/>
     </row>
@@ -3350,7 +3350,7 @@
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="6">
@@ -3387,7 +3387,7 @@
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="6">
@@ -3424,7 +3424,7 @@
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="6">
@@ -3461,7 +3461,7 @@
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G62" s="3">
         <v>2</v>
@@ -3496,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G63" s="3">
         <v>2</v>
@@ -3619,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="L66" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3654,7 +3654,7 @@
         <v>2</v>
       </c>
       <c r="L67" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -3689,7 +3689,7 @@
         <v>2</v>
       </c>
       <c r="L68" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -3706,7 +3706,7 @@
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G69" s="3">
         <v>3</v>
@@ -3741,7 +3741,7 @@
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G70" s="3">
         <v>3</v>
@@ -3776,7 +3776,7 @@
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G71" s="3">
         <v>2</v>
@@ -3811,7 +3811,7 @@
         <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G72" s="3">
         <v>3</v>
@@ -3829,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="L72" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -3846,7 +3846,7 @@
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G73" s="3">
         <v>3</v>
@@ -3864,7 +3864,7 @@
         <v>2</v>
       </c>
       <c r="L73" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -3881,7 +3881,7 @@
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G74" s="3">
         <v>3</v>
@@ -3899,7 +3899,7 @@
         <v>2</v>
       </c>
       <c r="L74" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -3916,7 +3916,7 @@
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G75" s="3">
         <v>3</v>
@@ -3951,7 +3951,7 @@
         <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G76" s="3">
         <v>3</v>
@@ -3969,7 +3969,7 @@
         <v>2</v>
       </c>
       <c r="L76" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -3986,7 +3986,7 @@
         <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G77" s="3">
         <v>3</v>
@@ -4021,7 +4021,7 @@
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G78" s="3">
         <v>3</v>
@@ -4056,7 +4056,7 @@
         <v>13</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="14">
@@ -4075,7 +4075,7 @@
         <v>2</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="15"/>
@@ -4096,7 +4096,7 @@
         <v>13</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="14">
@@ -4115,7 +4115,7 @@
         <v>2</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="15"/>
@@ -4136,7 +4136,7 @@
         <v>13</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="14">
@@ -4155,7 +4155,7 @@
         <v>2</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="15"/>
@@ -4173,10 +4173,10 @@
         <v>8</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="14">
@@ -4195,7 +4195,7 @@
         <v>2</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="15"/>
@@ -4235,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -4296,7 +4296,7 @@
         <v>12</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="10">
@@ -4315,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -4336,7 +4336,7 @@
         <v>12</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="12">
@@ -4395,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="11" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="11" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
@@ -4536,7 +4536,7 @@
         <v>12</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F91" s="11"/>
       <c r="G91" s="10">
@@ -4555,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
@@ -4576,7 +4576,7 @@
         <v>13</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F92" s="11"/>
       <c r="G92" s="10">
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
@@ -4616,7 +4616,7 @@
         <v>12</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F93" s="13"/>
       <c r="G93" s="12">
@@ -4656,7 +4656,7 @@
         <v>13</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F94" s="13"/>
       <c r="G94" s="12">
@@ -4715,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="11" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
@@ -4795,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="L97" s="11" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
@@ -4856,7 +4856,7 @@
         <v>13</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F99" s="11"/>
       <c r="G99" s="10">
@@ -4875,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="11" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
@@ -4896,7 +4896,7 @@
         <v>13</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F100" s="11"/>
       <c r="G100" s="10">
@@ -4915,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
@@ -4936,7 +4936,7 @@
         <v>13</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F101" s="13"/>
       <c r="G101" s="12">
@@ -4976,7 +4976,7 @@
         <v>12</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F102" s="13"/>
       <c r="G102" s="12">
@@ -5016,7 +5016,7 @@
         <v>12</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F103" s="11"/>
       <c r="G103" s="10">
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="11" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M103" s="11"/>
       <c r="N103" s="11"/>
@@ -5056,7 +5056,7 @@
         <v>12</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="5">
@@ -5096,7 +5096,7 @@
         <v>12</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="5">
@@ -5136,7 +5136,7 @@
         <v>12</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="5">
@@ -5176,7 +5176,7 @@
         <v>12</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="5">
@@ -5216,7 +5216,7 @@
         <v>12</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="5">
@@ -5256,7 +5256,7 @@
         <v>12</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="5">
@@ -5296,7 +5296,7 @@
         <v>12</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F110" s="11"/>
       <c r="G110" s="10">
@@ -5315,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="11" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
@@ -5336,7 +5336,7 @@
         <v>12</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="5">
@@ -5376,7 +5376,7 @@
         <v>12</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="5">
@@ -5416,7 +5416,7 @@
         <v>12</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="5">
@@ -5456,7 +5456,7 @@
         <v>12</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="5">
@@ -5496,7 +5496,7 @@
         <v>12</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="5">
@@ -5536,7 +5536,7 @@
         <v>12</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="5">
@@ -5576,7 +5576,7 @@
         <v>13</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F117" s="11"/>
       <c r="G117" s="10">
@@ -5595,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="L117" s="11" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="M117" s="11"/>
       <c r="N117" s="11"/>
@@ -5616,7 +5616,7 @@
         <v>13</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="10">
@@ -5635,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="11" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="M118" s="11"/>
       <c r="N118" s="11"/>
@@ -5656,7 +5656,7 @@
         <v>13</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="5">
@@ -5696,7 +5696,7 @@
         <v>13</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="5">
@@ -5736,7 +5736,7 @@
         <v>13</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="5">
@@ -5776,7 +5776,7 @@
         <v>13</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="5">
@@ -5816,7 +5816,7 @@
         <v>13</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="5">
@@ -5856,7 +5856,7 @@
         <v>13</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="5">
@@ -5896,7 +5896,7 @@
         <v>13</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="5">
@@ -5936,7 +5936,7 @@
         <v>13</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="5">
@@ -5976,7 +5976,7 @@
         <v>13</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="5">
@@ -6016,7 +6016,7 @@
         <v>13</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="5">
@@ -6056,7 +6056,7 @@
         <v>13</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="5">
@@ -6096,7 +6096,7 @@
         <v>13</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="5">
